--- a/data/trans_bre/P16A_n_R3-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P16A_n_R3-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>4.286840668451135</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8.107443773086032</v>
+        <v>8.107443773086038</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7266313893722347</v>
@@ -649,7 +649,7 @@
         <v>1.739161826461668</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.9221715024350687</v>
+        <v>0.9221715024350691</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3321868027188898</v>
+        <v>0.1734418726264259</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.978268482703915</v>
+        <v>2.891023107684196</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.5487931615536</v>
+        <v>2.625641650857753</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4.533538072140874</v>
+        <v>4.374040102941565</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.08061628665506136</v>
+        <v>0.02241165824487859</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.737649601356046</v>
+        <v>0.7588611543179784</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7874489422412497</v>
+        <v>0.8343648233156712</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.4011700219620112</v>
+        <v>0.4009132563834866</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.335818227951875</v>
+        <v>3.944177292420894</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.850585304492304</v>
+        <v>6.866399147262314</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.092539552500241</v>
+        <v>6.149500791393649</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.41148594707036</v>
+        <v>11.60928448777446</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.189639001800789</v>
+        <v>1.979376992127755</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3.632168000277913</v>
+        <v>3.497309226509207</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3.434128912567462</v>
+        <v>3.39899447768357</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.647117401638857</v>
+        <v>1.661136152371077</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.2892222010863159</v>
+        <v>-0.3286054701240907</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2583686309313011</v>
+        <v>0.2835831004811629</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1727843195195134</v>
+        <v>0.1383751839690366</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4.288125103938742</v>
+        <v>4.339647220073533</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2521805024071185</v>
+        <v>-0.2292989350243704</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0805432262537447</v>
+        <v>0.06803179573076086</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06745123984435224</v>
+        <v>0.008240420286135731</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.7525214193134024</v>
+        <v>0.743823197843298</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.852920594021107</v>
+        <v>1.74975935047054</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.268960769214498</v>
+        <v>3.281678962653901</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.963971825209663</v>
+        <v>3.064117050601169</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.199117699196371</v>
+        <v>8.288828751007467</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.547252117577415</v>
+        <v>2.343882980096037</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3.178131703572826</v>
+        <v>3.628255310303529</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.786906710252754</v>
+        <v>2.55296712869366</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.044843152805786</v>
+        <v>2.183053146819002</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>1.924985672706627</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>2.993813067260819</v>
+        <v>2.993813067260821</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.257993512802254</v>
@@ -849,7 +849,7 @@
         <v>1.838888203013821</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.8278814655780141</v>
+        <v>0.8278814655780146</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.6876865848699756</v>
+        <v>-0.6751558373025219</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.13006979598616</v>
+        <v>2.113267885748602</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5624601684649214</v>
+        <v>0.4921959376143447</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.32252046495294</v>
+        <v>1.424770881060364</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.4424298587493872</v>
+        <v>-0.467505829289715</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1.508483650003906</v>
+        <v>1.465340935032466</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2149679500300141</v>
+        <v>0.1528503348620177</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.2714599711485969</v>
+        <v>0.3157155184608228</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.411786885726124</v>
+        <v>1.268270228334929</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.090704055510094</v>
+        <v>5.14260442451725</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.378487958513317</v>
+        <v>3.480242871545612</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.448581957817927</v>
+        <v>4.57871844467331</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.021894543207232</v>
+        <v>1.837604993360358</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>14.78392787885831</v>
+        <v>15.12622091984942</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>5.724948469958334</v>
+        <v>5.064494752901702</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.570495272573523</v>
+        <v>1.600336047444041</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>1.647067091734336</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2.216235488577884</v>
+        <v>2.216235488577885</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2389460696565049</v>
@@ -949,7 +949,7 @@
         <v>2.302157360686245</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.5805420317704625</v>
+        <v>0.5805420317704628</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.112812118186861</v>
+        <v>-1.223786744305569</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.010253743029569</v>
+        <v>-1.129665392685718</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3745768298842312</v>
+        <v>0.2448427078311408</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6539616085560009</v>
+        <v>0.5239786017639972</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6802337378844279</v>
+        <v>-0.7523597601240951</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3748574579923275</v>
+        <v>-0.4048587621940631</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.004595545415875184</v>
+        <v>-0.0906597708170325</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1363868464486707</v>
+        <v>0.1150614621765721</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.566274815754344</v>
+        <v>2.233246041866163</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.453606399035819</v>
+        <v>3.562790383795309</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.557000356240258</v>
+        <v>3.568592951200678</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.817405565790887</v>
+        <v>3.740754207594064</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4.793504645287767</v>
+        <v>3.926237087853624</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.903190899611155</v>
+        <v>2.684273729361947</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>14.4202250911455</v>
+        <v>12.28901118680088</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.252696743195744</v>
+        <v>1.250211571276378</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>2.665111004389413</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4.802000208431088</v>
+        <v>4.80200020843109</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7340624019454982</v>
@@ -1049,7 +1049,7 @@
         <v>1.618094536482598</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>1.013795656841929</v>
+        <v>1.01379565684193</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.389612567503029</v>
+        <v>0.4168052493736679</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.194522040218966</v>
+        <v>2.162922673394907</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.826940348271423</v>
+        <v>1.878298295730173</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.82073162771755</v>
+        <v>3.945007649423721</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2075376569919128</v>
+        <v>0.2292272790247161</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9928150229927052</v>
+        <v>0.961602340898681</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.893078651992932</v>
+        <v>0.8887392517405788</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.7317794197067188</v>
+        <v>0.7504130540620808</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.80980104734903</v>
+        <v>1.779911209278002</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.002675536679889</v>
+        <v>3.937938799597521</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.559724295967924</v>
+        <v>3.514005241855611</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.763629565219417</v>
+        <v>5.757098043889576</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.493038978807386</v>
+        <v>1.457076518615164</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2.756433399206187</v>
+        <v>2.758275710119291</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2.654885226902336</v>
+        <v>2.589789718675804</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.368413447392475</v>
+        <v>1.351562543502335</v>
       </c>
     </row>
     <row r="19">
